--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1r2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J2">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N2">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q2">
-        <v>0.2241532198302222</v>
+        <v>0.007801955707333332</v>
       </c>
       <c r="R2">
-        <v>2.017378978472</v>
+        <v>0.07021760136599998</v>
       </c>
       <c r="S2">
-        <v>0.000943827014922243</v>
+        <v>8.268991010169184E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009438270149222433</v>
+        <v>8.268991010169184E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J3">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P3">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q3">
-        <v>4.139593725197332</v>
+        <v>0.03932839177299999</v>
       </c>
       <c r="R3">
-        <v>37.25634352677599</v>
+        <v>0.353955525957</v>
       </c>
       <c r="S3">
-        <v>0.01743031124693692</v>
+        <v>0.0004168264089344624</v>
       </c>
       <c r="T3">
-        <v>0.01743031124693693</v>
+        <v>0.0004168264089344624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J4">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N4">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O4">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P4">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q4">
-        <v>35.31067799614666</v>
+        <v>0.4857152592086666</v>
       </c>
       <c r="R4">
-        <v>317.79610196532</v>
+        <v>4.371437332877999</v>
       </c>
       <c r="S4">
-        <v>0.148680317120701</v>
+        <v>0.005147908117606111</v>
       </c>
       <c r="T4">
-        <v>0.148680317120701</v>
+        <v>0.005147908117606111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J5">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N5">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q5">
-        <v>2.243471867012444</v>
+        <v>0.028906655591</v>
       </c>
       <c r="R5">
-        <v>20.191246803112</v>
+        <v>0.260159900319</v>
       </c>
       <c r="S5">
-        <v>0.009446437382912376</v>
+        <v>0.000306370459129067</v>
       </c>
       <c r="T5">
-        <v>0.009446437382912377</v>
+        <v>0.000306370459129067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J6">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N6">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q6">
-        <v>52.60291956304</v>
+        <v>0.06813832986399999</v>
       </c>
       <c r="R6">
-        <v>473.42627606736</v>
+        <v>0.613244968776</v>
       </c>
       <c r="S6">
-        <v>0.2214916055409922</v>
+        <v>0.0007221717966993401</v>
       </c>
       <c r="T6">
-        <v>0.2214916055409923</v>
+        <v>0.0007221717966993401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H7">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I7">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J7">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N7">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q7">
-        <v>0.3390564406132223</v>
+        <v>0.5907627470793333</v>
       </c>
       <c r="R7">
-        <v>3.051507965519</v>
+        <v>5.316864723714</v>
       </c>
       <c r="S7">
-        <v>0.001427642344270229</v>
+        <v>0.006261265800509818</v>
       </c>
       <c r="T7">
-        <v>0.001427642344270229</v>
+        <v>0.006261265800509818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H8">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I8">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J8">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P8">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q8">
-        <v>6.261591580586333</v>
+        <v>2.977939074967</v>
       </c>
       <c r="R8">
-        <v>56.354324225277</v>
+        <v>26.801451674703</v>
       </c>
       <c r="S8">
-        <v>0.02636526610968732</v>
+        <v>0.03156202414298273</v>
       </c>
       <c r="T8">
-        <v>0.02636526610968732</v>
+        <v>0.03156202414298273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H9">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I9">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J9">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N9">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O9">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P9">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q9">
-        <v>53.41129075050167</v>
+        <v>36.77827606208466</v>
       </c>
       <c r="R9">
-        <v>480.701616754515</v>
+        <v>331.004484558762</v>
       </c>
       <c r="S9">
-        <v>0.2248953601932296</v>
+        <v>0.3897987191096794</v>
       </c>
       <c r="T9">
-        <v>0.2248953601932296</v>
+        <v>0.3897987191096794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H10">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I10">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J10">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N10">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q10">
-        <v>3.393498368755445</v>
+        <v>2.188806999989001</v>
       </c>
       <c r="R10">
-        <v>30.541485318799</v>
+        <v>19.699262999901</v>
       </c>
       <c r="S10">
-        <v>0.0142887772834665</v>
+        <v>0.02319831858170167</v>
       </c>
       <c r="T10">
-        <v>0.01428877728346651</v>
+        <v>0.02319831858170167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.929373</v>
+      </c>
+      <c r="H11">
+        <v>8.788119</v>
+      </c>
+      <c r="I11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="J11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.761272</v>
+      </c>
+      <c r="N11">
+        <v>5.283816</v>
+      </c>
+      <c r="O11">
+        <v>0.108174865149316</v>
+      </c>
+      <c r="P11">
+        <v>0.108174865149316</v>
+      </c>
+      <c r="Q11">
+        <v>5.159422642456</v>
+      </c>
+      <c r="R11">
+        <v>46.434803782104</v>
+      </c>
+      <c r="S11">
+        <v>0.05468272449692497</v>
+      </c>
+      <c r="T11">
+        <v>0.05468272449692497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.826906</v>
+      </c>
+      <c r="H12">
+        <v>8.480718</v>
+      </c>
+      <c r="I12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2016686666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.6050059999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01238620770755966</v>
+      </c>
+      <c r="P12">
+        <v>0.01238620770755966</v>
+      </c>
+      <c r="Q12">
+        <v>0.5700983638119999</v>
+      </c>
+      <c r="R12">
+        <v>5.130885274308</v>
+      </c>
+      <c r="S12">
+        <v>0.006042251996948154</v>
+      </c>
+      <c r="T12">
+        <v>0.006042251996948154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.826906</v>
+      </c>
+      <c r="H13">
+        <v>8.480718</v>
+      </c>
+      <c r="I13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.016579</v>
+      </c>
+      <c r="N13">
+        <v>3.049737</v>
+      </c>
+      <c r="O13">
+        <v>0.06243686167646252</v>
+      </c>
+      <c r="P13">
+        <v>0.06243686167646253</v>
+      </c>
+      <c r="Q13">
+        <v>2.873773274573999</v>
+      </c>
+      <c r="R13">
+        <v>25.863959471166</v>
+      </c>
+      <c r="S13">
+        <v>0.03045801112454533</v>
+      </c>
+      <c r="T13">
+        <v>0.03045801112454534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.159473666666667</v>
-      </c>
-      <c r="H11">
-        <v>18.478421</v>
-      </c>
-      <c r="I11">
-        <v>0.6020075016935351</v>
-      </c>
-      <c r="J11">
-        <v>0.6020075016935352</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.91794</v>
-      </c>
-      <c r="N11">
-        <v>38.75382</v>
-      </c>
-      <c r="O11">
-        <v>0.5565220613038737</v>
-      </c>
-      <c r="P11">
-        <v>0.5565220613038737</v>
-      </c>
-      <c r="Q11">
-        <v>79.56771125758002</v>
-      </c>
-      <c r="R11">
-        <v>716.1094013182201</v>
-      </c>
-      <c r="S11">
-        <v>0.3350304557628814</v>
-      </c>
-      <c r="T11">
-        <v>0.3350304557628815</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.826906</v>
+      </c>
+      <c r="H14">
+        <v>8.480718</v>
+      </c>
+      <c r="I14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.55499933333333</v>
+      </c>
+      <c r="N14">
+        <v>37.664998</v>
+      </c>
+      <c r="O14">
+        <v>0.7711105154871511</v>
+      </c>
+      <c r="P14">
+        <v>0.771110515487151</v>
+      </c>
+      <c r="Q14">
+        <v>35.491802945396</v>
+      </c>
+      <c r="R14">
+        <v>319.426226508564</v>
+      </c>
+      <c r="S14">
+        <v>0.3761638882598656</v>
+      </c>
+      <c r="T14">
+        <v>0.3761638882598656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.826906</v>
+      </c>
+      <c r="H15">
+        <v>8.480718</v>
+      </c>
+      <c r="I15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7471930000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.241579</v>
+      </c>
+      <c r="O15">
+        <v>0.04589154997951076</v>
+      </c>
+      <c r="P15">
+        <v>0.04589154997951076</v>
+      </c>
+      <c r="Q15">
+        <v>2.112244374858</v>
+      </c>
+      <c r="R15">
+        <v>19.010199373722</v>
+      </c>
+      <c r="S15">
+        <v>0.02238686093868003</v>
+      </c>
+      <c r="T15">
+        <v>0.02238686093868003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.826906</v>
+      </c>
+      <c r="H16">
+        <v>8.480718</v>
+      </c>
+      <c r="I16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.761272</v>
+      </c>
+      <c r="N16">
+        <v>5.283816</v>
+      </c>
+      <c r="O16">
+        <v>0.108174865149316</v>
+      </c>
+      <c r="P16">
+        <v>0.108174865149316</v>
+      </c>
+      <c r="Q16">
+        <v>4.978950384431999</v>
+      </c>
+      <c r="R16">
+        <v>44.810553459888</v>
+      </c>
+      <c r="S16">
+        <v>0.0527699688556917</v>
+      </c>
+      <c r="T16">
+        <v>0.0527699688556917</v>
       </c>
     </row>
   </sheetData>
